--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_66.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_66.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kaori Shimizu</t>
+          <t>Hiroshi Kobayashi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
